--- a/MALT200817.Manual/manual/MALT191104.xlsx
+++ b/MALT200817.Manual/manual/MALT191104.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="16560" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="16560" windowHeight="7020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MALT132 Protokol" sheetId="1" r:id="rId1"/>
     <sheet name="Common Message Table" sheetId="6" r:id="rId2"/>
+    <sheet name="Munka1" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -707,23 +708,23 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1999,7 +2000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -2117,45 +2118,45 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="11" t="s">
         <v>62</v>
       </c>
@@ -2265,20 +2266,20 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -2293,20 +2294,20 @@
       <c r="J11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="9" t="s">
         <v>62</v>
       </c>
@@ -2319,24 +2320,24 @@
       <c r="J12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -2351,20 +2352,20 @@
       <c r="J13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="9" t="s">
         <v>62</v>
       </c>
@@ -2377,8 +2378,8 @@
       <c r="J14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -2406,20 +2407,20 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -2434,18 +2435,18 @@
       <c r="J16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="9" t="s">
         <v>62</v>
       </c>
@@ -2458,8 +2459,8 @@
       <c r="J17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
@@ -2539,20 +2540,20 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>6</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>47</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -2567,20 +2568,20 @@
       <c r="J21" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="L21" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="9" t="s">
         <v>62</v>
       </c>
@@ -2593,8 +2594,8 @@
       <c r="J22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
@@ -2622,23 +2623,23 @@
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>7</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="17" t="s">
         <v>28</v>
       </c>
       <c r="H24" s="9" t="s">
@@ -2653,16 +2654,16 @@
       <c r="K24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="18"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="9" t="s">
         <v>62</v>
       </c>
@@ -2675,7 +2676,7 @@
       <c r="K25" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="18"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
@@ -2755,26 +2756,26 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="19">
         <v>8</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="17" t="s">
         <v>77</v>
       </c>
       <c r="I29" s="9" t="s">
@@ -2791,14 +2792,14 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="9" t="s">
         <v>62</v>
       </c>
@@ -2813,26 +2814,26 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>8</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="17" t="s">
         <v>77</v>
       </c>
       <c r="I31" s="9" t="s">
@@ -2849,14 +2850,14 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="9" t="s">
         <v>62</v>
       </c>
@@ -2896,23 +2897,23 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="21" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="19">
         <v>5</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="17" t="s">
         <v>72</v>
       </c>
       <c r="H34" s="9" t="s">
@@ -2921,46 +2922,46 @@
       <c r="I34" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="9" t="s">
         <v>62</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="19">
         <v>7</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="17" t="s">
         <v>72</v>
       </c>
       <c r="H36" s="9" t="s">
@@ -2975,16 +2976,16 @@
       <c r="K36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L36" s="18"/>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="9" t="s">
         <v>62</v>
       </c>
@@ -2997,25 +2998,25 @@
       <c r="K37" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L37" s="18"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="19">
         <v>7</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="17" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="9" t="s">
@@ -3030,15 +3031,15 @@
       <c r="K38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L38" s="18"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="9" t="s">
         <v>62</v>
       </c>
@@ -3051,7 +3052,7 @@
       <c r="K39" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L39" s="18"/>
+      <c r="L39" s="17"/>
     </row>
     <row r="44" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
@@ -3070,71 +3071,15 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="K21:K22"/>
@@ -3151,18 +3096,86 @@
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="J34:J35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>